--- a/prizmer/static/cfg/vzlet_test_load.xlsx
+++ b/prizmer/static/cfg/vzlet_test_load.xlsx
@@ -281,37 +281,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 8" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,7 +498,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15"/>
@@ -541,9 +511,9 @@
     <col min="6" max="6" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
@@ -646,7 +616,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -752,11 +722,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/prizmer/static/cfg/vzlet_test_load.xlsx
+++ b/prizmer/static/cfg/vzlet_test_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Населенный пункт</t>
   </si>
@@ -94,9 +94,6 @@
     <t>ВЗЛЕТ ТСР-М ТСРВ-024М</t>
   </si>
   <si>
-    <t>ВЗЛЕТ МР УРСВ-311</t>
-  </si>
-  <si>
     <t>Номер лицевого счета</t>
   </si>
   <si>
@@ -104,6 +101,15 @@
   </si>
   <si>
     <t>Стояк 1</t>
+  </si>
+  <si>
+    <t>ГВС</t>
+  </si>
+  <si>
+    <t>ВЗЛЕТ МР УРСВ-311 ХВС</t>
+  </si>
+  <si>
+    <t>ВЗЛЕТ МР УРСВ-311 ГВС</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -629,7 +635,7 @@
     <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -655,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>7</v>
@@ -704,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -717,7 +723,45 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>55556</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4002</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
